--- a/data_extraction/Data Science Resources.xlsx
+++ b/data_extraction/Data Science Resources.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylebradbury/Dropbox/Professional/Projects/Website/Data Science Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylebradbury/Dropbox/Code/kylebradbury/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="460" windowWidth="23560" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="1" r:id="rId1"/>
+    <sheet name="Courses" sheetId="2" r:id="rId2"/>
+    <sheet name="Online Articles" sheetId="5" r:id="rId3"/>
+    <sheet name="Tools" sheetId="4" r:id="rId4"/>
+    <sheet name="Videos" sheetId="8" r:id="rId5"/>
+    <sheet name="Data Science News Sources" sheetId="6" r:id="rId6"/>
+    <sheet name="Data" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Courses!$A$1:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">References!$A$1:$J$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tools!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Videos!$A$1:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="755">
   <si>
     <t>Author</t>
   </si>
@@ -53,9 +65,6 @@
     <t>50 Years of Data Science</t>
   </si>
   <si>
-    <t>http://talhaoz.com/wp-content/uploads/2015/10/50YearsDataScience.pdf</t>
-  </si>
-  <si>
     <t>Starred</t>
   </si>
   <si>
@@ -194,12 +203,6 @@
     <t>Vandenberghe, L.</t>
   </si>
   <si>
-    <t>Applied Numerical Computing. Lecture Notes</t>
-  </si>
-  <si>
-    <t>http://www.seas.ucla.edu/~vandenbe/103/reader.pdf</t>
-  </si>
-  <si>
     <t>Lay, David</t>
   </si>
   <si>
@@ -302,9 +305,6 @@
     <t>The Elements of Statistical Learning (2nd Edition)</t>
   </si>
   <si>
-    <t>http://statweb.stanford.edu/~tibs/ElemStatLearn/</t>
-  </si>
-  <si>
     <t>Duda, Richard O., Peter E. Hart, and David G. Stork</t>
   </si>
   <si>
@@ -470,9 +470,6 @@
     <t>Reinforcement Learning</t>
   </si>
   <si>
-    <t>http://webdocs.cs.ualberta.ca/~sutton/book/ebook/</t>
-  </si>
-  <si>
     <t>Shaw, Zed</t>
   </si>
   <si>
@@ -654,13 +651,1666 @@
   </si>
   <si>
     <t>An online tool to learn, build, and test Regular Expressions.</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Course Designation</t>
+  </si>
+  <si>
+    <t>Instructor Last</t>
+  </si>
+  <si>
+    <t>Instructor First</t>
+  </si>
+  <si>
+    <t>Good Assignments</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Learning From Data</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>MOOC</t>
+  </si>
+  <si>
+    <t>Abu-Mostafa</t>
+  </si>
+  <si>
+    <t>Yasur</t>
+  </si>
+  <si>
+    <t>http://work.caltech.edu/lectures.html#lectures</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>OpenCourseware</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-034-artificial-intelligence-fall-2010/</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>CS 229</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>https://see.stanford.edu/Course/CS229</t>
+  </si>
+  <si>
+    <t>Data Mining and Analysis</t>
+  </si>
+  <si>
+    <t>Stats 202</t>
+  </si>
+  <si>
+    <t>Walther</t>
+  </si>
+  <si>
+    <t>Guenther</t>
+  </si>
+  <si>
+    <t>http://web.stanford.edu/class/stats202/</t>
+  </si>
+  <si>
+    <t>Advanced Machine Learning</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>CS 281</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>https://www.seas.harvard.edu/courses/cs281/</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>10-601</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>http://www.cs.cmu.edu/~ninamf/courses/601sp15/lectures.shtml</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>CSE 446</t>
+  </si>
+  <si>
+    <t>Domingos</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>https://courses.cs.washington.edu/courses/cse446/14wi/</t>
+  </si>
+  <si>
+    <t>University of Texas at Dallas</t>
+  </si>
+  <si>
+    <t>CS 7301</t>
+  </si>
+  <si>
+    <t>Gogate</t>
+  </si>
+  <si>
+    <t>Vibhav</t>
+  </si>
+  <si>
+    <t>http://www.hlt.utdallas.edu/~vgogate/ml/2017s/lectures.html</t>
+  </si>
+  <si>
+    <t>Advanced Topics in Machine Learning</t>
+  </si>
+  <si>
+    <t>CS 253</t>
+  </si>
+  <si>
+    <t>Krause</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>http://courses.cms.caltech.edu/cs253/index.html</t>
+  </si>
+  <si>
+    <t>Oxford University</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>Zisserman</t>
+  </si>
+  <si>
+    <t>http://www.robots.ox.ac.uk/~az/lectures/ml/index.html</t>
+  </si>
+  <si>
+    <t>Worchester Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>CS 534</t>
+  </si>
+  <si>
+    <t>Berenson</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Introduction to Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Duke University</t>
+  </si>
+  <si>
+    <t>CPS 270</t>
+  </si>
+  <si>
+    <t>Konidaris</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>https://www.cs.duke.edu/courses/spring16/compsci270/</t>
+  </si>
+  <si>
+    <t>Reinforcement learning</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>CS 109</t>
+  </si>
+  <si>
+    <t>Irizarry</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>http://cs109.github.io/2014/index.html</t>
+  </si>
+  <si>
+    <t>Introduction to Data Science</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>CS 5963</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>http://datasciencecourse.net/2016/</t>
+  </si>
+  <si>
+    <t>Machine Learning for Data Science</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>COMS W4721</t>
+  </si>
+  <si>
+    <t>Paisley</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>http://www.columbia.edu/~jwp2128/Teaching/W4721/Spring2017/W4721Spring2017.html</t>
+  </si>
+  <si>
+    <t>Applied Machine Learning</t>
+  </si>
+  <si>
+    <t>COMS W4995</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>https://amueller.github.io/applied_ml_spring_2017/</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>University at Buffalo</t>
+  </si>
+  <si>
+    <t>CSE 574</t>
+  </si>
+  <si>
+    <t>Srihari</t>
+  </si>
+  <si>
+    <t>Sargul</t>
+  </si>
+  <si>
+    <t>http://www.cedar.buffalo.edu/~srihari/CSE574/index.html</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>CS 6140</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>http://www.ccs.neu.edu/home/luwang/courses/cs6140_sp2017.html</t>
+  </si>
+  <si>
+    <t>Guestrin</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>http://www.cs.cmu.edu/~guestrin/Class/10701/hws.html</t>
+  </si>
+  <si>
+    <t>CSE 546</t>
+  </si>
+  <si>
+    <t>Kakade</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>https://courses.cs.washington.edu/courses/cse546/16au/</t>
+  </si>
+  <si>
+    <t>Jamieson</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>https://courses.cs.washington.edu/courses/cse546/17au/</t>
+  </si>
+  <si>
+    <t>https://courses.cs.washington.edu/courses/cse546/10wi/</t>
+  </si>
+  <si>
+    <t>Machine Learning and Data Mining</t>
+  </si>
+  <si>
+    <t>University of California, Irvine</t>
+  </si>
+  <si>
+    <t>CS 178</t>
+  </si>
+  <si>
+    <t>Ihler</t>
+  </si>
+  <si>
+    <t>http://sli.ics.uci.edu/Classes/2011W-178</t>
+  </si>
+  <si>
+    <t>University of Wisconsin</t>
+  </si>
+  <si>
+    <t>CS 760</t>
+  </si>
+  <si>
+    <t>Shavlik</t>
+  </si>
+  <si>
+    <t>Jude</t>
+  </si>
+  <si>
+    <t>http://pages.cs.wisc.edu/~shavlik/cs760.html</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+  </si>
+  <si>
+    <t>Dietterich</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>http://web.engr.oregonstate.edu/~tgd/classes/534/</t>
+  </si>
+  <si>
+    <t>Possibly</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Xiaoli</t>
+  </si>
+  <si>
+    <t>http://classes.engr.oregonstate.edu/eecs/fall2015/cs534/</t>
+  </si>
+  <si>
+    <t>Intersting sample exams</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>CS 590</t>
+  </si>
+  <si>
+    <t>Vishwanathan</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>http://www.stat.purdue.edu/~vishy/introml/introml.html</t>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>CS 189</t>
+  </si>
+  <si>
+    <t>Shewchuk</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>https://people.eecs.berkeley.edu/~jrs/189/</t>
+  </si>
+  <si>
+    <t>Interesting lecture notes</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>CS 4780</t>
+  </si>
+  <si>
+    <t>Weinberger</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>http://www.cs.cornell.edu/courses/cs4780/2017sp/</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning and Data Mining</t>
+  </si>
+  <si>
+    <t>Tufts University</t>
+  </si>
+  <si>
+    <t>COMP 135</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>https://github.com/kephale/TuftsCOMP135_Spring2016</t>
+  </si>
+  <si>
+    <t>Data Mining and Machine Learning</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>STAT 365/665</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>http://euler.stat.yale.edu/~tba3/stat665/</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>http://commonmark.org/</t>
+  </si>
+  <si>
+    <t>CommonMark</t>
+  </si>
+  <si>
+    <t>Markdown Language</t>
+  </si>
+  <si>
+    <t>Tensorflow for Deep Learning Research</t>
+  </si>
+  <si>
+    <t>CS 20SI</t>
+  </si>
+  <si>
+    <t>Huyen</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>http://web.stanford.edu/class/cs20si/index.html</t>
+  </si>
+  <si>
+    <t>Subtopic</t>
+  </si>
+  <si>
+    <t>Tabula</t>
+  </si>
+  <si>
+    <t>http://tabula.technology/</t>
+  </si>
+  <si>
+    <t>Data Scraping</t>
+  </si>
+  <si>
+    <t>Extract data from tables</t>
+  </si>
+  <si>
+    <t>Scrapy</t>
+  </si>
+  <si>
+    <t>https://scrapy.org/</t>
+  </si>
+  <si>
+    <t>Web Scraping</t>
+  </si>
+  <si>
+    <t>Scrape data from the web</t>
+  </si>
+  <si>
+    <t>There is only one test</t>
+  </si>
+  <si>
+    <t>http://allendowney.blogspot.com/2011/05/there-is-only-one-test.html</t>
+  </si>
+  <si>
+    <t>Formulating hypothesis tests</t>
+  </si>
+  <si>
+    <t>http://allendowney.blogspot.com/2016/06/there-is-still-only-one-test.html</t>
+  </si>
+  <si>
+    <t>There is still only one test</t>
+  </si>
+  <si>
+    <t>Data Science Roundup</t>
+  </si>
+  <si>
+    <t>Data Elixir</t>
+  </si>
+  <si>
+    <t>2016 Data Science Salary Survey</t>
+  </si>
+  <si>
+    <t>http://www.oreilly.com/data/free/files/2016-data-science-salary-survey.pdf</t>
+  </si>
+  <si>
+    <t>Data Science as a Career</t>
+  </si>
+  <si>
+    <t>Regexer</t>
+  </si>
+  <si>
+    <t>Tensorflow Playground</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Interactive regular expression playground</t>
+  </si>
+  <si>
+    <t>Interactive neural network playground</t>
+  </si>
+  <si>
+    <t>How a Kalman Filter works, with pictures</t>
+  </si>
+  <si>
+    <t>http://www.bzarg.com/p/how-a-kalman-filter-works-in-pictures/</t>
+  </si>
+  <si>
+    <t>Colah's Blog</t>
+  </si>
+  <si>
+    <t>http://colah.github.io/</t>
+  </si>
+  <si>
+    <t>Clear description of a Kalman Filter</t>
+  </si>
+  <si>
+    <t>Clear descriptions of complicated machine learning concepts such as backpropagation, neural networks, convolutional neural networks, and LSTMs</t>
+  </si>
+  <si>
+    <t>Distill</t>
+  </si>
+  <si>
+    <t>https://distill.pub/</t>
+  </si>
+  <si>
+    <t>Detailed, but clear explanations for advanced machine learning research topics</t>
+  </si>
+  <si>
+    <t>Kaggle Datasets</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets</t>
+  </si>
+  <si>
+    <t>A Mathematics Course for Political and Social Researchers</t>
+  </si>
+  <si>
+    <t>Siegel</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>http://people.duke.edu/~das76/MooSieBook.html</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook Features</t>
+  </si>
+  <si>
+    <t>http://arogozhnikov.github.io/2016/09/10/jupyter-features.html</t>
+  </si>
+  <si>
+    <t>Overview of some standard and less common Jupyter notebook features</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Interactive Playground</t>
+  </si>
+  <si>
+    <t>http://arogozhnikov.github.io/2016/07/05/gradient_boosting_playground.html</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Explained</t>
+  </si>
+  <si>
+    <t>http://arogozhnikov.github.io/2016/06/24/gradient_boosting_explained.html</t>
+  </si>
+  <si>
+    <t>Plot.ly for Python</t>
+  </si>
+  <si>
+    <t>https://plot.ly/d3-js-for-python-and-pandas-charts/</t>
+  </si>
+  <si>
+    <t>Bokeh</t>
+  </si>
+  <si>
+    <t>https://bokeh.pydata.org/en/latest/</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning: Playing a Racing Game</t>
+  </si>
+  <si>
+    <t>https://lopespm.github.io/machine_learning/2016/10/06/deep-reinforcement-learning-racing-game.html</t>
+  </si>
+  <si>
+    <t>http://www.r2d3.us/visual-intro-to-machine-learning-part-1/</t>
+  </si>
+  <si>
+    <t>American Institute of Mathmatics Open Textbooks</t>
+  </si>
+  <si>
+    <t>https://aimath.org/textbooks/approved-textbooks/</t>
+  </si>
+  <si>
+    <t>Books on a variety of mathematical topics ranging from calculus, linear algebra, and statistics</t>
+  </si>
+  <si>
+    <t>Free and Open Source Textbooks</t>
+  </si>
+  <si>
+    <t>http://danaernst.com/resources/free-and-open-source-textbooks/</t>
+  </si>
+  <si>
+    <t>Calculus and linear algebra textbooks</t>
+  </si>
+  <si>
+    <t>http://vallandingham.me/scroller.html</t>
+  </si>
+  <si>
+    <t>So You Want to Build A Scroller</t>
+  </si>
+  <si>
+    <t>Interactive plotting tools</t>
+  </si>
+  <si>
+    <t>Interactive visualization</t>
+  </si>
+  <si>
+    <t>Scrollers for interactive web visualizations</t>
+  </si>
+  <si>
+    <t>Statistical Data Mining Tutorial Slides</t>
+  </si>
+  <si>
+    <t>https://www.autonlab.org/tutorials/index.html</t>
+  </si>
+  <si>
+    <t>28 Jupyter Notebook Tips, Tricks, and Shortcuts</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/jupyter-notebook-tips-tricks-shortcuts/</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Cliburn</t>
+  </si>
+  <si>
+    <t>STA 663</t>
+  </si>
+  <si>
+    <t>http://people.duke.edu/~ccc14/sta-663-2015/</t>
+  </si>
+  <si>
+    <t>Computational Statistics in Python</t>
+  </si>
+  <si>
+    <t>Computational Statistics</t>
+  </si>
+  <si>
+    <t>https://people.duke.edu/~ccc14/sta-663-2017/</t>
+  </si>
+  <si>
+    <t>Numpy Tutorial: Data Analysis with Python</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/numpy-tutorial-python/</t>
+  </si>
+  <si>
+    <t>No Free Hunch</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Jurafsky, Dan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL6397E4B26D00A269</t>
+  </si>
+  <si>
+    <t>Python Software Foundation</t>
+  </si>
+  <si>
+    <t>The Python Tutorial</t>
+  </si>
+  <si>
+    <t>3Brown1Blue</t>
+  </si>
+  <si>
+    <t>Essence of Linear Algebra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLZHQObOWTQDPD3MizzM2xVFitgF8hE_ab</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLZHQObOWTQDNU6R1_67000Dx_ZCJB-3pi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F1ka6a13S9I</t>
+  </si>
+  <si>
+    <t>Andrew Ng speaks on advice for those looking to enter the field of machine learning</t>
+  </si>
+  <si>
+    <t>Nuts and Bolts of Applying Deep Learning</t>
+  </si>
+  <si>
+    <t>Deep Learning School</t>
+  </si>
+  <si>
+    <t>Sanderson, Grant</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>http://www.fabfile.org/</t>
+  </si>
+  <si>
+    <t>Command line automation tool</t>
+  </si>
+  <si>
+    <t>Hacker's Guide to Neural Networks</t>
+  </si>
+  <si>
+    <t>http://karpathy.github.io/neuralnets/</t>
+  </si>
+  <si>
+    <t>Tutorial on neural networks with minimal math</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook Tutorial</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>General guide to setting up Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>Perceptually Uniform Colormaps</t>
+  </si>
+  <si>
+    <t>http://peterkovesi.com/projects/colourmaps/</t>
+  </si>
+  <si>
+    <t>Colormaps</t>
+  </si>
+  <si>
+    <t>Perceptually uniform colormaps for more accurate data representation</t>
+  </si>
+  <si>
+    <t>The Non-technical Guide to Machine Learning and AI</t>
+  </si>
+  <si>
+    <t>https://machinelearnings.co/a-humans-guide-to-machine-learning-e179f43b67a0</t>
+  </si>
+  <si>
+    <t>Lists of companies and people active in the machine learning business space</t>
+  </si>
+  <si>
+    <t>ShareLaTeX</t>
+  </si>
+  <si>
+    <t>https://www.sharelatex.com/</t>
+  </si>
+  <si>
+    <t>Online LaTeX collaboration</t>
+  </si>
+  <si>
+    <t>Overleaf</t>
+  </si>
+  <si>
+    <t>https://www.overleaf.com/</t>
+  </si>
+  <si>
+    <t>Collaborative Writing</t>
+  </si>
+  <si>
+    <t>Authorea</t>
+  </si>
+  <si>
+    <t>Online scientific document collaboration</t>
+  </si>
+  <si>
+    <t>https://www.authorea.com/</t>
+  </si>
+  <si>
+    <t>How to Use t-SNE Effectively</t>
+  </si>
+  <si>
+    <t>https://distill.pub/2016/misread-tsne/</t>
+  </si>
+  <si>
+    <t>t-SNE Implementations</t>
+  </si>
+  <si>
+    <t>https://lvdmaaten.github.io/tsne/</t>
+  </si>
+  <si>
+    <t>R for Data Science</t>
+  </si>
+  <si>
+    <t>http://r4ds.had.co.nz/</t>
+  </si>
+  <si>
+    <t>Venables, W., and D. Smith</t>
+  </si>
+  <si>
+    <t>An Introduction to R</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/doc/manuals/R-intro.pdf</t>
+  </si>
+  <si>
+    <t>Grolemund, Garrett, and Hadley Wickham</t>
+  </si>
+  <si>
+    <t>An Intereactive Tutorial on Numerical Optimization</t>
+  </si>
+  <si>
+    <t>http://www.benfrederickson.com/numerical-optimization/</t>
+  </si>
+  <si>
+    <t>Interactive tutorial on numeraical optimization that explores numerical optimization techniques including gradient descent</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning: From Pong to Pixels</t>
+  </si>
+  <si>
+    <t>http://karpathy.github.io/2016/05/31/rl/</t>
+  </si>
+  <si>
+    <t>A toolkit for developing and comparing reinforcement learning algorithms</t>
+  </si>
+  <si>
+    <t>OpenAI Gym</t>
+  </si>
+  <si>
+    <t>https://github.com/openai/gym</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>https://www.draw.io/</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Online graphics platform</t>
+  </si>
+  <si>
+    <t>CS 188</t>
+  </si>
+  <si>
+    <t>http://ai.berkeley.edu/home.html</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>http://ai.berkeley.edu/lecture_videos.html</t>
+  </si>
+  <si>
+    <t>Klein, Dan and Pieter Abbeel</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Reinforcement Learning lectures</t>
+  </si>
+  <si>
+    <t>Videos?</t>
+  </si>
+  <si>
+    <t>Colorgorical</t>
+  </si>
+  <si>
+    <t>http://vrl.cs.brown.edu/color</t>
+  </si>
+  <si>
+    <t>Color Palette Generator</t>
+  </si>
+  <si>
+    <t>Online color palette generator</t>
+  </si>
+  <si>
+    <t>MATLAB, Python, and R Command Comparision</t>
+  </si>
+  <si>
+    <t>http://mathesaurus.sourceforge.net/matlab-python-xref.pdf</t>
+  </si>
+  <si>
+    <t>Compare commands between 3 languages: Matlab, Python, and R</t>
+  </si>
+  <si>
+    <t>Neural Networks Demystified</t>
+  </si>
+  <si>
+    <t>Welch Labs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLiaHhY2iBX9hdHaRr6b7XevZtgZRa1PoU</t>
+  </si>
+  <si>
+    <t>Welch, Stephen</t>
+  </si>
+  <si>
+    <t>Visual introduction to neural networks</t>
+  </si>
+  <si>
+    <t>Learning to See</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLiaHhY2iBX9ihLasvE8BKnS2Xg8AhY6iV</t>
+  </si>
+  <si>
+    <t>Intuitive, visual explanation of machine learning</t>
+  </si>
+  <si>
+    <t>Explain Shell</t>
+  </si>
+  <si>
+    <t>https://explainshell.com/</t>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>Seach command-lines to see the help text that matches each argument</t>
+  </si>
+  <si>
+    <t>Keras Tutorial: The Ultime Beginner's Guide to Deep Learning in Python</t>
+  </si>
+  <si>
+    <t>https://elitedatascience.com/keras-tutorial-deep-learning-in-python</t>
+  </si>
+  <si>
+    <t>Rodeo</t>
+  </si>
+  <si>
+    <t>https://www.yhat.com/products/rodeo</t>
+  </si>
+  <si>
+    <t>A Python integrated development environment</t>
+  </si>
+  <si>
+    <t>OpenAI Universe</t>
+  </si>
+  <si>
+    <t>https://github.com/openai/universe</t>
+  </si>
+  <si>
+    <t>A toolkit for developing and comparing reinforcement learning algorithms, particularly video games</t>
+  </si>
+  <si>
+    <t>The Neural Network Zoo</t>
+  </si>
+  <si>
+    <t>http://www.asimovinstitute.org/neural-network-zoo/</t>
+  </si>
+  <si>
+    <t>A graphical cheat sheet for neural network architectures and acronyms</t>
+  </si>
+  <si>
+    <t>https://stats.stackexchange.com/questions/252577/bayes-regression-how-is-it-done-in-comparison-to-standard-regression</t>
+  </si>
+  <si>
+    <t>Bayes Regression: how is it done in comparison to standard regression?</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks for Visual Recognition</t>
+  </si>
+  <si>
+    <t>CS 231n</t>
+  </si>
+  <si>
+    <t>http://cs231n.stanford.edu/syllabus.html</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Fei-Fei</t>
+  </si>
+  <si>
+    <t>Python Numpy Tutorial</t>
+  </si>
+  <si>
+    <t>http://cs231n.github.io/python-numpy-tutorial/</t>
+  </si>
+  <si>
+    <t>Fantastic Numpy Tutorial</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>PPOL 670</t>
+  </si>
+  <si>
+    <t>https://github.com/GeorgetownMcCourt/data-science</t>
+  </si>
+  <si>
+    <t>Introduction to Data Science for Public Policy</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Style Guide for Python Code</t>
+  </si>
+  <si>
+    <t>https://www.python.org/dev/peps/pep-0008/</t>
+  </si>
+  <si>
+    <t>Programming style guide</t>
+  </si>
+  <si>
+    <t>Google Style Guide</t>
+  </si>
+  <si>
+    <t>https://google.github.io/styleguide/</t>
+  </si>
+  <si>
+    <t>Style guide for Python, R, Shell, HTML, CSS, Javascript, Java, and C++</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>http://cs231n.github.io/convolutional-networks/</t>
+  </si>
+  <si>
+    <t>Neural networks</t>
+  </si>
+  <si>
+    <t>Thorough and intuitive explanation of convolutional neural networks</t>
+  </si>
+  <si>
+    <t>Immersive Linear Algebra</t>
+  </si>
+  <si>
+    <t>http://immersivemath.com/ila/index.html</t>
+  </si>
+  <si>
+    <t>Ström, J., K. Åström, and T. Akenine-Möller</t>
+  </si>
+  <si>
+    <t>A fully interactive linear algebra book</t>
+  </si>
+  <si>
+    <t>https://docs.python.org/3/tutorial/</t>
+  </si>
+  <si>
+    <t>PyFormat</t>
+  </si>
+  <si>
+    <t>https://pyformat.info/</t>
+  </si>
+  <si>
+    <t>Explanation of formatting in Python</t>
+  </si>
+  <si>
+    <t>Python Data Science Handbook</t>
+  </si>
+  <si>
+    <t>VanderPlas, Jake</t>
+  </si>
+  <si>
+    <t>https://jakevdp.github.io/PythonDataScienceHandbook/</t>
+  </si>
+  <si>
+    <t>Book on Python, Numpy, Pandas, and Matplotlib for machine learning, with code examples</t>
+  </si>
+  <si>
+    <t>The Hitchhiker’s Guide to Python</t>
+  </si>
+  <si>
+    <t>Reitz, Kenneth and‎ Tanya Schlusser</t>
+  </si>
+  <si>
+    <t>http://docs.python-guide.org/en/latest/</t>
+  </si>
+  <si>
+    <t>This guide provides a best practice handbook to the installation, configuration, and usage of Python on a daily basis</t>
+  </si>
+  <si>
+    <t>Rougier, Nicholas</t>
+  </si>
+  <si>
+    <t>From Python to Numpy</t>
+  </si>
+  <si>
+    <t>http://www.labri.fr/perso/nrougier/from-python-to-numpy/</t>
+  </si>
+  <si>
+    <t>Demonstrate vectorized Python through Numpy</t>
+  </si>
+  <si>
+    <t>Raschka, Sebastian</t>
+  </si>
+  <si>
+    <t>Python Machine Learning, Second Ediction</t>
+  </si>
+  <si>
+    <t>https://github.com/rasbt/python-machine-learning-book-2nd-edition</t>
+  </si>
+  <si>
+    <t>Introduction to machine learning using Python</t>
+  </si>
+  <si>
+    <t>https://github.com/ageron/handson-ml</t>
+  </si>
+  <si>
+    <t>Géron, Aurélien</t>
+  </si>
+  <si>
+    <t>Hands-On Machine Learning with Scikit-Learn and TensorFlow</t>
+  </si>
+  <si>
+    <t>Linear Algebra Review and Reference</t>
+  </si>
+  <si>
+    <t>http://www.cs.cmu.edu/~zkolter/course/15-884/linalg-review.pdf</t>
+  </si>
+  <si>
+    <t>http://www.scipy-lectures.org/</t>
+  </si>
+  <si>
+    <t>Varoquaux et al.</t>
+  </si>
+  <si>
+    <t>Scipy Lecture Notes</t>
+  </si>
+  <si>
+    <t>Tutorials on the scientific Python ecosystem</t>
+  </si>
+  <si>
+    <t>Topological Data Analysis Resources</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/calstad/01e174faff2cdca7faf9</t>
+  </si>
+  <si>
+    <t>Topological data analysis</t>
+  </si>
+  <si>
+    <t>http://www.cs.huji.ac.il/~shais/UnderstandingMachineLearning/</t>
+  </si>
+  <si>
+    <t>Shalev-Shwartz, Shai and Shai Ben-David</t>
+  </si>
+  <si>
+    <t>Understanding Machine Learning: From Theory to Algorithms</t>
+  </si>
+  <si>
+    <t>Mining of Massive Data Sets</t>
+  </si>
+  <si>
+    <t>CS 246</t>
+  </si>
+  <si>
+    <t>Ullman</t>
+  </si>
+  <si>
+    <t>http://web.stanford.edu/class/cs246/</t>
+  </si>
+  <si>
+    <t>28 Jupyter Notebook tips, tricks and shortcuts</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/community/tutorials/tutorial-jupyter-notebook</t>
+  </si>
+  <si>
+    <t>Excellent tips for Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>STATS 385</t>
+  </si>
+  <si>
+    <t>Donoho</t>
+  </si>
+  <si>
+    <t>https://stats385.github.io/</t>
+  </si>
+  <si>
+    <t>Theories of Deep Learning</t>
+  </si>
+  <si>
+    <t>Very advanced course</t>
+  </si>
+  <si>
+    <t>Anaconda Python Distribution</t>
+  </si>
+  <si>
+    <t>https://www.anaconda.com/download/</t>
+  </si>
+  <si>
+    <t>Distribution for Python with package manager</t>
+  </si>
+  <si>
+    <t>COMS 4721</t>
+  </si>
+  <si>
+    <t>http://www.cs.columbia.edu/~ansaf/courses/4721/index.html#</t>
+  </si>
+  <si>
+    <t>Salleb-Aouissi</t>
+  </si>
+  <si>
+    <t>Ansaf</t>
+  </si>
+  <si>
+    <t>https://www.zotero.org/</t>
+  </si>
+  <si>
+    <t>Reference Management</t>
+  </si>
+  <si>
+    <t>Zotero</t>
+  </si>
+  <si>
+    <t>Reference and citation management system for research</t>
+  </si>
+  <si>
+    <t>Awesome Public Datasets</t>
+  </si>
+  <si>
+    <t>https://github.com/caesar0301/awesome-public-datasets</t>
+  </si>
+  <si>
+    <t>Curated list of datasets by Xiaming Chen</t>
+  </si>
+  <si>
+    <t>Support Vector Machines</t>
+  </si>
+  <si>
+    <t>Winston, Patrick</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_PwhiWxHK8o</t>
+  </si>
+  <si>
+    <t>MIT Open Courseware</t>
+  </si>
+  <si>
+    <t>An exceedingly lucid explantion of support vector machines - intuitively and mathematically</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XUj5JbQihlU</t>
+  </si>
+  <si>
+    <t>Kernel Functions</t>
+  </si>
+  <si>
+    <t>Caltech</t>
+  </si>
+  <si>
+    <t>Abu-Mostafa, Yaser</t>
+  </si>
+  <si>
+    <t>Description of kernel functions and how they are used</t>
+  </si>
+  <si>
+    <t>Taylor Series</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3d6DsjIBzJ4&amp;t=924s</t>
+  </si>
+  <si>
+    <t>Clear description of Taylor Series</t>
+  </si>
+  <si>
+    <t>Great SVM discussion</t>
+  </si>
+  <si>
+    <t>Building a Data Science Portfolio</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/how-to-setup-a-data-science-blog/</t>
+  </si>
+  <si>
+    <t>How to build an online data science portfolio or blog with Jupyter notebooks and static site generators</t>
+  </si>
+  <si>
+    <t>How to Present Your Data Science Portfolio on Github</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/how-to-share-data-science-portfolio/</t>
+  </si>
+  <si>
+    <t>How to create a data science portfolio on GitHub</t>
+  </si>
+  <si>
+    <t>Building a Data Science Portfolio: Machine Learning Project</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/data-science-portfolio-machine-learning/</t>
+  </si>
+  <si>
+    <t>Building a Data Science Portfolio: Storytelling with Data</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/data-science-portfolio-project/</t>
+  </si>
+  <si>
+    <t>Tmux</t>
+  </si>
+  <si>
+    <t>https://github.com/tmux/tmux/wiki</t>
+  </si>
+  <si>
+    <t>Terminal multiplexer</t>
+  </si>
+  <si>
+    <t>https://choosealicense.com/</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>A guide to choosing an open source license</t>
+  </si>
+  <si>
+    <t>Open source license guide</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University's Data Science Lab Courses</t>
+  </si>
+  <si>
+    <t>http://jhudatascience.org/courses.html</t>
+  </si>
+  <si>
+    <t>Envisioning the Data Science Discipline: The Undergraduate Perspective</t>
+  </si>
+  <si>
+    <t>http://sites.nationalacademies.org/CSTB/CSTB_177038</t>
+  </si>
+  <si>
+    <t>National Academies meeting notes that discusses core concepts of current undergraduate data science education and envision future pathways that embrace the full lifecycle of data and consider the full impact of data science on society</t>
+  </si>
+  <si>
+    <t>An Overview of Gradient Descent Optimization Algorithms</t>
+  </si>
+  <si>
+    <t>http://ruder.io/optimizing-gradient-descent/index.html</t>
+  </si>
+  <si>
+    <t>This blog post aims at providing you with intuitions towards the behaviour of different algorithms for optimizing gradient descent that will help you put them to use.</t>
+  </si>
+  <si>
+    <t>Gradient Boosting and Machine Learning</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPqtzj5VZus</t>
+  </si>
+  <si>
+    <t>Hastie, Treveor</t>
+  </si>
+  <si>
+    <t>H2O.ai</t>
+  </si>
+  <si>
+    <t>Discussion of ensemble learning including random forests and gradient boosting</t>
+  </si>
+  <si>
+    <t>http://kourouklides.wikia.com/wiki/Machine_Learning</t>
+  </si>
+  <si>
+    <t>Machine Learning Resources</t>
+  </si>
+  <si>
+    <t>Resources about Pattern Recognition, Computational Statistics and Machine Learning from Ioannis Kourouklides</t>
+  </si>
+  <si>
+    <t>Scrollama</t>
+  </si>
+  <si>
+    <t>https://pudding.cool/process/introducing-scrollama/</t>
+  </si>
+  <si>
+    <t>cmder</t>
+  </si>
+  <si>
+    <t>http://cmder.net/</t>
+  </si>
+  <si>
+    <t>Console emulator for Windows</t>
+  </si>
+  <si>
+    <t>Yes*</t>
+  </si>
+  <si>
+    <t>http://www.andbrain.com/</t>
+  </si>
+  <si>
+    <t>And Brain</t>
+  </si>
+  <si>
+    <t>Combination of open and proprietary datasets</t>
+  </si>
+  <si>
+    <t>Kaggle's extensive collection of datasets</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/datasets.html</t>
+  </si>
+  <si>
+    <t>The original machine learning data repository</t>
+  </si>
+  <si>
+    <t>UCI Machine Learning Repository</t>
+  </si>
+  <si>
+    <t>https://tobi.oetiker.ch/lshort/lshort.pdf</t>
+  </si>
+  <si>
+    <t>Extensive guide to LaTeX typesetting for equations</t>
+  </si>
+  <si>
+    <t>The Not So Short Introduction to LATEX 2ε</t>
+  </si>
+  <si>
+    <t>Oetiker, Tobias</t>
+  </si>
+  <si>
+    <t>Typesetting</t>
+  </si>
+  <si>
+    <t>http://gitimmersion.com/index.html</t>
+  </si>
+  <si>
+    <t>Git Immersion</t>
+  </si>
+  <si>
+    <t>An extensive Github tutorial</t>
+  </si>
+  <si>
+    <t>Git Internals</t>
+  </si>
+  <si>
+    <t>Chacon, Scott</t>
+  </si>
+  <si>
+    <t>https://github.com/pluralsight/git-internals-pdf</t>
+  </si>
+  <si>
+    <t>Explained Visaully</t>
+  </si>
+  <si>
+    <t>http://setosa.io/ev/</t>
+  </si>
+  <si>
+    <t>Visual explanations of topics including eigenvalue and eigenvectors, principal components analysis, ordrinary least squares regression, and many more</t>
+  </si>
+  <si>
+    <t>WildML</t>
+  </si>
+  <si>
+    <t>https://www.getrevue.co/profile/wildml</t>
+  </si>
+  <si>
+    <t>http://blog.kaggle.com/</t>
+  </si>
+  <si>
+    <t>https://dataelixir.com/</t>
+  </si>
+  <si>
+    <t>Data Science Weekly</t>
+  </si>
+  <si>
+    <t>https://www.datascienceweekly.org/</t>
+  </si>
+  <si>
+    <t>http://roundup.fishtownanalytics.com/</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Video series on natural language processing (text analysis)</t>
+  </si>
+  <si>
+    <t>Video series on a geometric interpretation of linear algebra concepts</t>
+  </si>
+  <si>
+    <t>Introductory video series on neural networks</t>
+  </si>
+  <si>
+    <t>D3.js</t>
+  </si>
+  <si>
+    <t>https://d3js.org/</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>https://www.tableau.com/</t>
+  </si>
+  <si>
+    <t>Data visualization</t>
+  </si>
+  <si>
+    <t>Graphical user interface-based data visualization tool</t>
+  </si>
+  <si>
+    <t>D3 (or Data Driven Documents) is an open-source JavaScript library for producing dynamic, interactive data visualizations in web browsers. Since this is based in JavaScript, visualizations are entirely customizable, but does require significant skill to use effectively</t>
+  </si>
+  <si>
+    <t>This application allows you to create and share documents that contain live code, equations, visualizations and explanatory text</t>
+  </si>
+  <si>
+    <t>http://jupyter.org/</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/</t>
+  </si>
+  <si>
+    <t>Open source distributed version control system - the de facto standard</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>Web hosting for git repositories</t>
+  </si>
+  <si>
+    <t>Github Pages</t>
+  </si>
+  <si>
+    <t>https://pages.github.com/</t>
+  </si>
+  <si>
+    <t>Web Publishing</t>
+  </si>
+  <si>
+    <t>Host web pages from Github repositories</t>
+  </si>
+  <si>
+    <t>http://courses.csail.mit.edu/18.337/2015/docs/50YearsDataScience.pdf</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/~boyd/vmls/</t>
+  </si>
+  <si>
+    <t>Introduction to Applied Linear Algebra</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/~hastie/ElemStatLearn/</t>
+  </si>
+  <si>
+    <t>http://www.incompleteideas.net/book/bookdraft2017nov5.pdf</t>
+  </si>
+  <si>
+    <t>http://web.eecs.umich.edu/~dmitryb/courses/fall15ai/index.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,6 +2334,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -702,16 +2383,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -720,6 +2414,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -988,24 +2685,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,19 +2718,19 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1048,1523 +2747,4824 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>749</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B3">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>2015</v>
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>1985</v>
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>1991</v>
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>499</v>
       </c>
       <c r="B11">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>165</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B12">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B14">
-        <v>2004</v>
+        <v>1970</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B15">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>101</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="B22">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>169</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B24">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B25">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>202</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26">
-        <v>2013</v>
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B27">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>596</v>
       </c>
       <c r="B28">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>597</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
+        <v>714</v>
+      </c>
+      <c r="B30">
+        <v>2008</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>713</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>99</v>
+        <v>715</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31">
-        <v>2006</v>
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>605</v>
       </c>
       <c r="B33">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>606</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>109</v>
+        <v>604</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="B34">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>580</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>581</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
+        <v>129</v>
+      </c>
+      <c r="B35">
+        <v>2003</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="B36">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>2017</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>751</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>128</v>
+        <v>750</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B38">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B39">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>2006</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="B43">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="B44">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B45">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>2014</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
+        <v>171</v>
+      </c>
+      <c r="B47">
+        <v>2009</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="B48">
         <v>2015</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B50">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>192</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>2012</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="B52">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>589</v>
       </c>
       <c r="B53">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>588</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>186</v>
+        <v>590</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
+        <v>600</v>
+      </c>
+      <c r="B55">
+        <v>2017</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>601</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>194</v>
+        <v>602</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>208</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>502</v>
       </c>
       <c r="B56">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>497</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>198</v>
+        <v>498</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57">
-        <v>1997</v>
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B58">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>204</v>
+        <v>753</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>610</v>
       </c>
       <c r="B59">
+        <v>2017</v>
+      </c>
+      <c r="C59" t="s">
+        <v>611</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>2009</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61">
+        <v>2012</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>593</v>
+      </c>
+      <c r="B62">
+        <v>2016</v>
+      </c>
+      <c r="C62" t="s">
+        <v>592</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>708</v>
+      </c>
+      <c r="B63">
+        <v>2016</v>
+      </c>
+      <c r="C63" t="s">
+        <v>707</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" t="s">
+        <v>709</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>456</v>
+      </c>
+      <c r="B64">
+        <v>2017</v>
+      </c>
+      <c r="C64" t="s">
+        <v>457</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
         <v>2010</v>
       </c>
-      <c r="C59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>205</v>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>2016</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67">
+        <v>2001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68">
+        <v>2013</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69">
+        <v>2012</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70">
+        <v>2015</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71">
+        <v>2014</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>617</v>
+      </c>
+      <c r="B72">
+        <v>2014</v>
+      </c>
+      <c r="C72" t="s">
+        <v>618</v>
+      </c>
+      <c r="D72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J72">
+    <sortState ref="A2:J72">
+      <sortCondition ref="C1:C72"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F17" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F21" r:id="rId18"/>
-    <hyperlink ref="F22" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
-    <hyperlink ref="F25" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F29" r:id="rId24"/>
-    <hyperlink ref="F30" r:id="rId25"/>
-    <hyperlink ref="F32" r:id="rId26"/>
-    <hyperlink ref="F33" r:id="rId27"/>
-    <hyperlink ref="F34" r:id="rId28"/>
-    <hyperlink ref="F35" r:id="rId29"/>
-    <hyperlink ref="F36" r:id="rId30"/>
-    <hyperlink ref="F37" r:id="rId31"/>
-    <hyperlink ref="F39" r:id="rId32"/>
-    <hyperlink ref="F38" r:id="rId33"/>
-    <hyperlink ref="F40" r:id="rId34"/>
-    <hyperlink ref="F41" r:id="rId35"/>
-    <hyperlink ref="F42" r:id="rId36"/>
-    <hyperlink ref="F43" r:id="rId37"/>
-    <hyperlink ref="F44" r:id="rId38"/>
-    <hyperlink ref="F45" r:id="rId39"/>
-    <hyperlink ref="F46" r:id="rId40"/>
-    <hyperlink ref="F47" r:id="rId41"/>
-    <hyperlink ref="F48" r:id="rId42"/>
-    <hyperlink ref="F52" r:id="rId43"/>
-    <hyperlink ref="F53" r:id="rId44" location="leanpub-auto-leanpub"/>
-    <hyperlink ref="F54" r:id="rId45"/>
-    <hyperlink ref="F55" r:id="rId46"/>
-    <hyperlink ref="F56" r:id="rId47"/>
-    <hyperlink ref="F57" r:id="rId48"/>
-    <hyperlink ref="F58" r:id="rId49"/>
-    <hyperlink ref="F59" r:id="rId50"/>
+    <hyperlink ref="F65" r:id="rId2"/>
+    <hyperlink ref="F66" r:id="rId3"/>
+    <hyperlink ref="F23" r:id="rId4"/>
+    <hyperlink ref="F48" r:id="rId5"/>
+    <hyperlink ref="F21" r:id="rId6"/>
+    <hyperlink ref="F18" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F20" r:id="rId9"/>
+    <hyperlink ref="F5" r:id="rId10"/>
+    <hyperlink ref="F40" r:id="rId11"/>
+    <hyperlink ref="F42" r:id="rId12"/>
+    <hyperlink ref="F37" r:id="rId13"/>
+    <hyperlink ref="F46" r:id="rId14"/>
+    <hyperlink ref="F27" r:id="rId15"/>
+    <hyperlink ref="F14" r:id="rId16"/>
+    <hyperlink ref="F49" r:id="rId17"/>
+    <hyperlink ref="F71" r:id="rId18"/>
+    <hyperlink ref="F32" r:id="rId19"/>
+    <hyperlink ref="F16" r:id="rId20"/>
+    <hyperlink ref="F4" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22"/>
+    <hyperlink ref="F60" r:id="rId23"/>
+    <hyperlink ref="F7" r:id="rId24"/>
+    <hyperlink ref="F8" r:id="rId25"/>
+    <hyperlink ref="F15" r:id="rId26"/>
+    <hyperlink ref="F68" r:id="rId27"/>
+    <hyperlink ref="F3" r:id="rId28"/>
+    <hyperlink ref="F10" r:id="rId29"/>
+    <hyperlink ref="F45" r:id="rId30"/>
+    <hyperlink ref="F26" r:id="rId31"/>
+    <hyperlink ref="F35" r:id="rId32"/>
+    <hyperlink ref="F25" r:id="rId33"/>
+    <hyperlink ref="F29" r:id="rId34"/>
+    <hyperlink ref="F38" r:id="rId35"/>
+    <hyperlink ref="F13" r:id="rId36"/>
+    <hyperlink ref="F70" r:id="rId37"/>
+    <hyperlink ref="F69" r:id="rId38"/>
+    <hyperlink ref="F54" r:id="rId39"/>
+    <hyperlink ref="F9" r:id="rId40"/>
+    <hyperlink ref="F39" r:id="rId41"/>
+    <hyperlink ref="F36" r:id="rId42"/>
+    <hyperlink ref="F22" r:id="rId43" location="leanpub-auto-leanpub"/>
+    <hyperlink ref="F31" r:id="rId44"/>
+    <hyperlink ref="F57" r:id="rId45"/>
+    <hyperlink ref="F50" r:id="rId46"/>
+    <hyperlink ref="F44" r:id="rId47"/>
+    <hyperlink ref="F43" r:id="rId48"/>
+    <hyperlink ref="F24" r:id="rId49"/>
+    <hyperlink ref="F64" r:id="rId50"/>
+    <hyperlink ref="F56" r:id="rId51"/>
+    <hyperlink ref="F11" r:id="rId52"/>
+    <hyperlink ref="F34" r:id="rId53"/>
+    <hyperlink ref="F53" r:id="rId54"/>
+    <hyperlink ref="F62" r:id="rId55"/>
+    <hyperlink ref="F28" r:id="rId56"/>
+    <hyperlink ref="F55" r:id="rId57"/>
+    <hyperlink ref="F33" r:id="rId58"/>
+    <hyperlink ref="F59" r:id="rId59"/>
+    <hyperlink ref="F72" r:id="rId60"/>
+    <hyperlink ref="F63" r:id="rId61"/>
+    <hyperlink ref="F30" r:id="rId62"/>
+    <hyperlink ref="F58" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2013</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N42">
+    <sortState ref="A2:N42">
+      <sortCondition ref="A1:A42"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" location="lectures"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G32" r:id="rId3"/>
+    <hyperlink ref="G12" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="G31" r:id="rId6"/>
+    <hyperlink ref="G25" r:id="rId7"/>
+    <hyperlink ref="G4" r:id="rId8"/>
+    <hyperlink ref="G5" r:id="rId9"/>
+    <hyperlink ref="G36" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G17" r:id="rId14"/>
+    <hyperlink ref="G38" r:id="rId15"/>
+    <hyperlink ref="G6" r:id="rId16"/>
+    <hyperlink ref="G20" r:id="rId17"/>
+    <hyperlink ref="G34" r:id="rId18"/>
+    <hyperlink ref="G28" r:id="rId19"/>
+    <hyperlink ref="G30" r:id="rId20"/>
+    <hyperlink ref="G29" r:id="rId21"/>
+    <hyperlink ref="G26" r:id="rId22"/>
+    <hyperlink ref="G37" r:id="rId23"/>
+    <hyperlink ref="G33" r:id="rId24"/>
+    <hyperlink ref="G24" r:id="rId25"/>
+    <hyperlink ref="G27" r:id="rId26"/>
+    <hyperlink ref="G21" r:id="rId27"/>
+    <hyperlink ref="G19" r:id="rId28"/>
+    <hyperlink ref="G35" r:id="rId29"/>
+    <hyperlink ref="G22" r:id="rId30"/>
+    <hyperlink ref="G13" r:id="rId31"/>
+    <hyperlink ref="G41" r:id="rId32"/>
+    <hyperlink ref="G2" r:id="rId33"/>
+    <hyperlink ref="G9" r:id="rId34"/>
+    <hyperlink ref="G10" r:id="rId35"/>
+    <hyperlink ref="G15" r:id="rId36"/>
+    <hyperlink ref="G11" r:id="rId37"/>
+    <hyperlink ref="G18" r:id="rId38"/>
+    <hyperlink ref="G40" r:id="rId39"/>
+    <hyperlink ref="G42" r:id="rId40"/>
+    <hyperlink ref="G39" r:id="rId41"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" t="s">
+        <v>472</v>
+      </c>
+      <c r="D19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>503</v>
+      </c>
+      <c r="B25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>528</v>
+      </c>
+      <c r="B27" t="s">
+        <v>529</v>
+      </c>
+      <c r="D27" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>555</v>
+      </c>
+      <c r="B29" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>563</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>607</v>
+      </c>
+      <c r="B32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C33" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>623</v>
+      </c>
+      <c r="B34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>659</v>
+      </c>
+      <c r="B35" t="s">
+        <v>660</v>
+      </c>
+      <c r="C35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>662</v>
+      </c>
+      <c r="B36" t="s">
+        <v>663</v>
+      </c>
+      <c r="C36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>665</v>
+      </c>
+      <c r="B37" t="s">
+        <v>666</v>
+      </c>
+      <c r="C37" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>667</v>
+      </c>
+      <c r="B38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>676</v>
+      </c>
+      <c r="B39" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>678</v>
+      </c>
+      <c r="B40" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>681</v>
+      </c>
+      <c r="B41" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>690</v>
+      </c>
+      <c r="B42" t="s">
+        <v>689</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>711</v>
+      </c>
+      <c r="B43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C43" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>716</v>
+      </c>
+      <c r="B44" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>561</v>
+      </c>
+      <c r="B45" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B12" t="s">
+        <v>740</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B13" t="s">
+        <v>743</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>745</v>
+      </c>
+      <c r="B14" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" t="s">
+        <v>747</v>
+      </c>
+      <c r="D14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" t="s">
+        <v>738</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B17" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" t="s">
+        <v>673</v>
+      </c>
+      <c r="D17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B22" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B26" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>484</v>
+      </c>
+      <c r="B27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" t="s">
+        <v>489</v>
+      </c>
+      <c r="D27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>570</v>
+      </c>
+      <c r="B29" t="s">
+        <v>571</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>732</v>
+      </c>
+      <c r="B30" t="s">
+        <v>733</v>
+      </c>
+      <c r="C30" t="s">
+        <v>734</v>
+      </c>
+      <c r="D30" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>551</v>
+      </c>
+      <c r="B33" t="s">
+        <v>552</v>
+      </c>
+      <c r="C33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>669</v>
+      </c>
+      <c r="B34" t="s">
+        <v>670</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>640</v>
+      </c>
+      <c r="B35" t="s">
+        <v>638</v>
+      </c>
+      <c r="C35" t="s">
+        <v>639</v>
+      </c>
+      <c r="D35" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D35">
+    <sortState ref="A2:D35">
+      <sortCondition ref="A1:A35"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D11" t="s">
+        <v>647</v>
+      </c>
+      <c r="E11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>655</v>
+      </c>
+      <c r="D12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E12">
+    <sortState ref="A2:E12">
+      <sortCondition ref="C1:C12"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>